--- a/Global Dataset.xlsx
+++ b/Global Dataset.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Google Drive\Backup\LwC\Users\JohannAbr\Documents\Corona\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFF1BE-E1F4-4C0C-9E2F-18E252D70C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1BBCF4-9C40-4287-98B8-EA37A81454E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{042DF217-B548-45AD-AB9B-1F061900252B}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="278">
   <si>
     <t>Blekinge</t>
   </si>
@@ -298,84 +299,15 @@
     <t>South West</t>
   </si>
   <si>
-    <t>AndalucÃ­a</t>
-  </si>
-  <si>
-    <t>AragÃ³n</t>
-  </si>
-  <si>
-    <t>Castilla y LeÃ³n</t>
-  </si>
-  <si>
-    <t>CataluÃ±a</t>
-  </si>
-  <si>
-    <t>PaÃ­s Vasco</t>
-  </si>
-  <si>
-    <t>GÃ¤vleborg</t>
-  </si>
-  <si>
-    <t>JÃ¤mtland</t>
-  </si>
-  <si>
-    <t>JÃ¶nkÃ¶ping</t>
-  </si>
-  <si>
-    <t>Kalmar lÃ¤n</t>
-  </si>
-  <si>
-    <t>SkÃ¥ne</t>
-  </si>
-  <si>
-    <t>SÃ¶rmland</t>
-  </si>
-  <si>
-    <t>VÃ¤rmland</t>
-  </si>
-  <si>
-    <t>VÃ¤sterbotten</t>
-  </si>
-  <si>
-    <t>VÃ¤sternorrland</t>
-  </si>
-  <si>
-    <t>VÃ¤stmanland</t>
-  </si>
-  <si>
-    <t>VÃ¤stra GÃ¶taland</t>
-  </si>
-  <si>
-    <t>Ã–rebro</t>
-  </si>
-  <si>
-    <t>Ã–stergÃ¶tland</t>
-  </si>
-  <si>
-    <t>ÃŽle-de-France</t>
-  </si>
-  <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>Auvergne-RhÃ´ne-Alpes</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-ComtÃ©</t>
-  </si>
-  <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>La RÃ©union</t>
-  </si>
-  <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>Provence-Alpes-CÃ´te d'Azur</t>
-  </si>
-  <si>
     <t>Blekinge County</t>
   </si>
   <si>
@@ -394,33 +326,12 @@
     <t>Norrbotten County</t>
   </si>
   <si>
-    <t>SkÃ¥ne County</t>
-  </si>
-  <si>
     <t>Stockholm County</t>
   </si>
   <si>
     <t>Uppsala County</t>
   </si>
   <si>
-    <t>VÃ¤sterbotten County</t>
-  </si>
-  <si>
-    <t>VÃ¤sternorrland County</t>
-  </si>
-  <si>
-    <t>VÃ¤stmanland County</t>
-  </si>
-  <si>
-    <t>VÃ¤stra GÃ¶taland County</t>
-  </si>
-  <si>
-    <t>Ã–rebro County</t>
-  </si>
-  <si>
-    <t>Ã–stergÃ¶tland County</t>
-  </si>
-  <si>
     <t>Gavleborg County</t>
   </si>
   <si>
@@ -436,9 +347,6 @@
     <t>Varmland County</t>
   </si>
   <si>
-    <t>SÃ¶dermanland County</t>
-  </si>
-  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -451,9 +359,6 @@
     <t>Canary Islands</t>
   </si>
   <si>
-    <t>Castile and LeÃ³n</t>
-  </si>
-  <si>
     <t>Castile-La Mancha</t>
   </si>
   <si>
@@ -475,9 +380,6 @@
     <t>Basque Country</t>
   </si>
   <si>
-    <t>Baden-WÃ¼rttemberg</t>
-  </si>
-  <si>
     <t>Bavaria</t>
   </si>
   <si>
@@ -751,9 +653,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
     <t>Piemont</t>
   </si>
   <si>
@@ -787,15 +686,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>OpenCovid</t>
-  </si>
-  <si>
-    <t>Google Mobility</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Castilla-La Mancha</t>
   </si>
   <si>
@@ -805,15 +695,9 @@
     <t>Islas Baleares</t>
   </si>
   <si>
-    <t>SÃ¶dermanland</t>
-  </si>
-  <si>
     <t>Kalmar</t>
   </si>
   <si>
-    <t>JÃ¤mtland HÃ¤rjedalen</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -829,17 +713,178 @@
     <t>Região Autónoma da Madeira (PT)</t>
   </si>
   <si>
-    <t>Lisbon</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>regionNUTS</t>
+  </si>
+  <si>
+    <t>regionOpenCovid</t>
+  </si>
+  <si>
+    <t>regionGoogleMob</t>
+  </si>
+  <si>
+    <t>Gävleborg</t>
+  </si>
+  <si>
+    <t>Jämtland</t>
+  </si>
+  <si>
+    <t>Jämtland Härjedalen</t>
+  </si>
+  <si>
+    <t>Jönköping</t>
+  </si>
+  <si>
+    <t>Skåne</t>
+  </si>
+  <si>
+    <t>Skåne County</t>
+  </si>
+  <si>
+    <t>Sörmland</t>
+  </si>
+  <si>
+    <t>Södermanland County</t>
+  </si>
+  <si>
+    <t>Södermanland</t>
+  </si>
+  <si>
+    <t>Värmland</t>
+  </si>
+  <si>
+    <t>Västerbotten</t>
+  </si>
+  <si>
+    <t>Västerbotten County</t>
+  </si>
+  <si>
+    <t>Västernorrland</t>
+  </si>
+  <si>
+    <t>Västernorrland County</t>
+  </si>
+  <si>
+    <t>Västmanland</t>
+  </si>
+  <si>
+    <t>Västmanland County</t>
+  </si>
+  <si>
+    <t>Västra Götaland</t>
+  </si>
+  <si>
+    <t>Västra Götaland County</t>
+  </si>
+  <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Örebro County</t>
+  </si>
+  <si>
+    <t>Östergötland</t>
+  </si>
+  <si>
+    <t>Östergötland County</t>
+  </si>
+  <si>
+    <t>Castile and León</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Okänt</t>
+  </si>
+  <si>
+    <t>Okänt County</t>
+  </si>
+  <si>
+    <t>Okänt län</t>
+  </si>
+  <si>
+    <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?query=BOOKMARK_DS-513634_QID_17172160_UID_-3F171EB0&amp;layout=TIME,C,X,0;GEO,L,Y,0;UNIT,L,Z,0;INDICATORS,C,Z,1;&amp;zSelection=DS-513634INDICATORS,OBS_FLAG;DS-513634UNIT,MIO_EUR;&amp;rankName1=TIME_1_0_0_0&amp;rankName2=UNIT_1_2_-1_2&amp;rankName3=GEO_1_2_0_1&amp;rankName4=INDICATORS_1_2_-1_2&amp;sortC=ASC_-1_FIRST&amp;rStp=&amp;cStp=&amp;rDCh=&amp;cDCh=&amp;rDM=true&amp;cDM=true&amp;footnes=false&amp;empty=false&amp;wai=false&amp;time_mode=NONE&amp;time_most_recent=false&amp;lang=EN&amp;cfo=%23%23%23%2C%23%23%23.%23%23%23</t>
+  </si>
+  <si>
+    <t>GDP per Region</t>
+  </si>
+  <si>
+    <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?query=BOOKMARK_DS-115323_QID_3ABAAA7F_UID_-3F171EB0&amp;layout=TIME,C,X,0;GEO,L,Y,0;UNIT,L,Z,0;INDICATORS,C,Z,1;&amp;zSelection=DS-115323UNIT,PER_KM2;DS-115323INDICATORS,OBS_FLAG;&amp;rankName1=TIME_1_0_0_0&amp;rankName2=UNIT_1_2_-1_2&amp;rankName3=GEO_1_2_0_1&amp;rankName4=INDICATORS_1_2_-1_2&amp;sortC=ASC_-1_FIRST&amp;rStp=&amp;cStp=&amp;rDCh=&amp;cDCh=&amp;rDM=true&amp;cDM=true&amp;footnes=false&amp;empty=false&amp;wai=false&amp;time_mode=NONE&amp;time_most_recent=false&amp;lang=EN&amp;cfo=%23%23%23%2C%23%23%23.%23%23%23</t>
+  </si>
+  <si>
+    <t>https://appsso.eurostat.ec.europa.eu/nui/show.do?query=BOOKMARK_DS-488855_QID_724E47A1_UID_-3F171EB0&amp;layout=TIME,C,X,0;GEO,L,Y,0;SEX,L,Z,0;UNIT,L,Z,1;AGE,L,Z,2;INDICATORS,C,Z,3;&amp;zSelection=DS-488855AGE,TOTAL;DS-488855SEX,T;DS-488855UNIT,NR;DS-488855INDICATORS,OBS_FLAG;&amp;rankName1=TIME_1_0_0_0&amp;rankName2=UNIT_1_2_-1_2&amp;rankName3=GEO_1_2_0_1&amp;rankName4=AGE_1_2_-1_2&amp;rankName5=INDICATORS_1_2_-1_2&amp;rankName6=SEX_1_2_-1_2&amp;sortC=ASC_-1_FIRST&amp;rStp=&amp;cStp=&amp;rDCh=&amp;cDCh=&amp;rDM=true&amp;cDM=true&amp;footnes=false&amp;empty=false&amp;wai=false&amp;time_mode=NONE&amp;time_most_recent=false&amp;lang=EN&amp;cfo=%23%23%23%2C%23%23%23.%23%23%23</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Pop Density</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>https://data.world/liz-friedman/covid-19-in-belgium</t>
+  </si>
+  <si>
+    <t>https://data.world/liz-friedman/covid-19-in-france</t>
+  </si>
+  <si>
+    <t>https://www.england.nhs.uk/statistics/statistical-work-areas/covid-19-daily-deaths/</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jannesggg/sweden-covid19-dataset?select=time_series_deaths-deaths.csv</t>
+  </si>
+  <si>
+    <t>https://data.world/liz-friedman/covid-19-in-spain</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/COVID-19-Pandemie_in_Deutschland</t>
+  </si>
+  <si>
+    <t>North West (UK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -862,13 +907,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,10 +1229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E0C0B5-7A53-4C09-AFE9-05D51A9C3A2A}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,19 +1246,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1218,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1235,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1252,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1266,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1286,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1300,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1317,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1334,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1354,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1371,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1385,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1405,10 +1456,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1419,16 +1470,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1439,10 +1490,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1453,16 +1504,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1470,16 +1521,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1487,16 +1538,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1504,16 +1555,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1521,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1538,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1555,33 +1606,33 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1589,16 +1640,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1606,16 +1657,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1623,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1640,16 +1691,16 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1657,16 +1708,16 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1674,16 +1725,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1691,16 +1742,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1708,16 +1759,16 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1725,16 +1776,16 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1742,16 +1793,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1759,16 +1810,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,16 +1827,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,16 +1844,16 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1810,16 +1861,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1827,16 +1878,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1844,16 +1895,16 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1861,16 +1912,16 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1878,33 +1929,33 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1912,16 +1963,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1929,16 +1980,16 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1946,16 +1997,16 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1963,16 +2014,16 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1980,16 +2031,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1997,16 +2048,16 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2014,16 +2065,16 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2031,16 +2082,16 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2048,16 +2099,16 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2065,16 +2116,16 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2082,16 +2133,16 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2099,16 +2150,16 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2116,16 +2167,16 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2133,16 +2184,16 @@
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2150,33 +2201,33 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2184,16 +2235,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2201,16 +2252,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2218,16 +2269,16 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2235,16 +2286,16 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2252,16 +2303,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2269,16 +2320,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
         <v>208</v>
-      </c>
-      <c r="E64" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2286,16 +2337,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2303,16 +2354,16 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2320,16 +2371,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2337,16 +2388,16 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2354,16 +2405,16 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2371,16 +2422,16 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2388,16 +2439,16 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2405,16 +2456,16 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2422,16 +2473,16 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2439,16 +2490,16 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2456,16 +2507,16 @@
         <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2473,16 +2524,16 @@
         <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2490,16 +2541,16 @@
         <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2507,30 +2558,33 @@
         <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2538,13 +2592,13 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2552,30 +2606,27 @@
         <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>217</v>
-      </c>
-      <c r="E82" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2583,16 +2634,16 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2600,16 +2651,16 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2617,16 +2668,16 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2634,16 +2685,16 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2651,16 +2702,16 @@
         <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2668,10 +2719,16 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2679,10 +2736,13 @@
         <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2690,10 +2750,13 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2701,10 +2764,13 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>70</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2712,10 +2778,13 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>256</v>
+      </c>
+      <c r="C92" t="s">
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2723,16 +2792,13 @@
         <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2740,16 +2806,16 @@
         <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="E94" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2757,16 +2823,16 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2774,16 +2840,16 @@
         <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2791,16 +2857,16 @@
         <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2808,16 +2874,16 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2825,102 +2891,355 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>77</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B103" t="s">
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" t="str">
+        <f>B108</f>
+        <v>East Of England</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" ref="D109:D114" si="0">B109</f>
+        <v>London</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="0"/>
+        <v>Midlands</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="0"/>
+        <v>North East And Yorkshire</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="0"/>
+        <v>North West (UK)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="0"/>
+        <v>South East</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="0"/>
+        <v>South West</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" t="s">
+        <v>260</v>
+      </c>
+      <c r="D117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2932,9 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A026B28-3A26-4B29-B377-44CFF4E96CDA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2946,7 +3263,7 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2957,7 +3274,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2968,7 +3285,7 @@
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2979,7 +3296,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
@@ -2993,10 +3310,10 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3007,10 +3324,10 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3048,27 +3365,127 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54320DF2-1FEE-4B81-9CEE-4D3A9A4C7213}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{1AB935FB-7F82-4DF5-A184-CDEE58080471}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{D4920456-3434-40F0-B1B3-4C0E227905BA}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{67520F79-D992-4A31-9128-F7B12BDE2287}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{D8C6F452-F1CB-49E3-A57E-4156D193CCB3}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{32DEFB99-A120-4DB6-BCE4-47B841B6B043}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{AAB09A5E-2389-4481-A300-BBD27CA204F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Global Dataset.xlsx
+++ b/Global Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Google Drive\Backup\LwC\Users\JohannAbr\Documents\Corona\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1BBCF4-9C40-4287-98B8-EA37A81454E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6219C-5CB4-4493-BDCA-C0840A1559FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{042DF217-B548-45AD-AB9B-1F061900252B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{042DF217-B548-45AD-AB9B-1F061900252B}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="279">
   <si>
     <t>Blekinge</t>
   </si>
@@ -863,10 +863,13 @@
     <t>https://data.world/liz-friedman/covid-19-in-spain</t>
   </si>
   <si>
-    <t>https://de.wikipedia.org/wiki/COVID-19-Pandemie_in_Deutschland</t>
-  </si>
-  <si>
     <t>North West (UK)</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/COVID-19-Pandemie/Statistik</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/COVID-19_pandemic_in_Italy</t>
   </si>
 </sst>
 </file>
@@ -1231,11 +1234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E0C0B5-7A53-4C09-AFE9-05D51A9C3A2A}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3104,10 +3107,10 @@
         <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="0"/>
@@ -3392,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54320DF2-1FEE-4B81-9CEE-4D3A9A4C7213}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3474,7 +3477,15 @@
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3484,7 +3495,8 @@
     <hyperlink ref="B12" r:id="rId3" xr:uid="{67520F79-D992-4A31-9128-F7B12BDE2287}"/>
     <hyperlink ref="B13" r:id="rId4" xr:uid="{D8C6F452-F1CB-49E3-A57E-4156D193CCB3}"/>
     <hyperlink ref="B14" r:id="rId5" xr:uid="{32DEFB99-A120-4DB6-BCE4-47B841B6B043}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{AAB09A5E-2389-4481-A300-BBD27CA204F6}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{C6E25A0F-BC71-4A69-A653-FB737C4CDC7D}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{7CDAF9E3-FC1E-499C-A0E0-2FD11830ABA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
